--- a/report/analisis-experimental-5000.xlsx
+++ b/report/analisis-experimental-5000.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franmoreno/Desktop/AED-II/DyVP5/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{913A2C38-3936-FE44-BA45-B2BCDC46D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB3DE00-B598-9241-B323-175E18466A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{951A537E-2FB2-5E4C-A2D1-7B037CEF4209}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{951A537E-2FB2-5E4C-A2D1-7B037CEF4209}"/>
   </bookViews>
   <sheets>
     <sheet name="regression" sheetId="2" r:id="rId1"/>
     <sheet name="data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -604,14 +617,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -30899,7 +30911,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-ES"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -32033,7 +32045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697C4CF1-C7BA-DB4B-86AC-D752201C971B}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -32046,48 +32058,48 @@
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.79787814704637994</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.63660953753416472</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.63653681580863619</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>4.8204388789182024</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>4999</v>
       </c>
     </row>
@@ -32097,156 +32109,154 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>203414.60269207502</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>203414.60269207502</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>8754.048847270722</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>4997</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>116113.44503397473</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>23.236630985386178</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>4998</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>319528.04772604973</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>1.0261402536751802</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>0.12622604104122165</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>8.1293863390682866</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>5.3932489638689898E-16</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>0.77868182061690683</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>1.2735986867334537</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>0.77868182061690683</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>1.2735986867334537</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16907</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>2.2132667461235473E-5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2.3655344438684896E-7</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>93.563074165348851</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>2.1668918901907761E-5</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>2.2596416020563185E-5</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>2.1668918901907761E-5</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>2.2596416020563185E-5</v>
       </c>
     </row>
@@ -32260,7 +32270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC0BDF3-F117-284A-B004-6D0B2F8C7CB0}">
   <dimension ref="A1:B5000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
